--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -43,30 +43,30 @@
     <t>evil</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
@@ -79,22 +79,22 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>social</t>
@@ -577,13 +577,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -595,19 +595,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -627,13 +627,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -651,13 +651,13 @@
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -677,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9423076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
@@ -727,13 +727,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9393939393939394</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0.5517241379310345</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -777,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8421052631578947</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.5333333333333333</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -827,13 +827,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -877,13 +877,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4710144927536232</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -895,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.03916211293260474</v>
+        <v>0.03005464480874317</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1055</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -927,13 +927,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4642857142857143</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -953,13 +953,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3428571428571429</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -979,13 +979,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3404255319148936</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
